--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Documents\Projects\Alessia\Lumiere control\GafaGate\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29234B5B-962C-475A-BFF9-91C55E8C6B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3732711E-C463-473E-9197-D5336BFB6391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4230" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28290" yWindow="2970" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_revenue" sheetId="2" r:id="rId1"/>
@@ -222,10 +222,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -624,7 +624,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1035,7 +1035,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="1"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1044,52 +1044,52 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
+      <c r="A23" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
+      <c r="A24" s="15"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
+      <c r="A25" s="15"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
+      <c r="A26" s="15"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
+      <c r="A27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
+      <c r="A28" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
+      <c r="A29" s="15"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
+      <c r="A30" s="15"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
+      <c r="A31" s="15"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
+      <c r="A32" s="15"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
+      <c r="A33" s="15"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
+      <c r="A34" s="15"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
+      <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
+      <c r="A36" s="15"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
+      <c r="A37" s="15"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
+      <c r="A38" s="15"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H7:I21">
@@ -2392,11 +2392,11 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
       <c r="H1" s="12" t="s">
         <v>26</v>
       </c>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Documents\Projects\Alessia\Lumiere control\GafaGate\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3732711E-C463-473E-9197-D5336BFB6391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29C9196-5949-40AE-B990-5AAC2931F0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28290" yWindow="2970" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26565" yWindow="3720" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data_revenue" sheetId="2" r:id="rId1"/>
+    <sheet name="Revenue" sheetId="2" r:id="rId1"/>
     <sheet name="Fines" sheetId="3" r:id="rId2"/>
     <sheet name="Inflation" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -624,7 +624,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2386,7 +2386,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A3" sqref="A3:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2415,24 +2415,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>2023</v>
+        <v>2010</v>
       </c>
       <c r="B3" s="13">
-        <v>5.6800000000000003E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="C3" s="13">
-        <v>-2.5600000000000001E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="B4" s="13">
-        <v>8.2400000000000001E-2</v>
+        <v>3.3700000000000001E-2</v>
       </c>
       <c r="C4" s="13">
-        <v>5.4199999999999998E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -2440,134 +2440,134 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="B5" s="13">
-        <v>2.8199999999999999E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="C5" s="13">
-        <v>2.0799999999999999E-2</v>
+        <v>-8.3999999999999995E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="B6" s="13">
-        <v>7.3000000000000001E-3</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="C6" s="13">
-        <v>-1.01E-2</v>
+        <v>-1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B7" s="13">
-        <v>1.7399999999999999E-2</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="C7" s="13">
-        <v>-1.9E-3</v>
+        <v>-8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B8" s="13">
-        <v>1.9300000000000001E-2</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="C8" s="13">
-        <v>1.1000000000000001E-3</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B9" s="13">
-        <v>1.8200000000000001E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="C9" s="13">
-        <v>1.38E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B10" s="13">
-        <v>4.4000000000000003E-3</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="C10" s="13">
-        <v>1E-3</v>
+        <v>1.38E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B11" s="13">
-        <v>3.3999999999999998E-3</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="C11" s="13">
-        <v>-2.8999999999999998E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B12" s="13">
-        <v>6.1999999999999998E-3</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="C12" s="13">
-        <v>-8.3000000000000001E-3</v>
+        <v>-1.9E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="B13" s="13">
-        <v>1.4500000000000001E-2</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="C13" s="13">
-        <v>-1.0800000000000001E-2</v>
+        <v>-1.01E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="B14" s="13">
-        <v>2.53E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="C14" s="13">
-        <v>-8.3999999999999995E-3</v>
+        <v>2.0799999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>2011</v>
+        <v>2022</v>
       </c>
       <c r="B15" s="13">
-        <v>3.3700000000000001E-2</v>
+        <v>8.2400000000000001E-2</v>
       </c>
       <c r="C15" s="13">
-        <v>1.5699999999999999E-2</v>
+        <v>5.4199999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="B16" s="13">
-        <v>1.8100000000000002E-2</v>
+        <v>5.6800000000000003E-2</v>
       </c>
       <c r="C16" s="13">
-        <v>7.0000000000000001E-3</v>
+        <v>-2.5600000000000001E-2</v>
       </c>
     </row>
   </sheetData>
